--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H2">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I2">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J2">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>22.441188730026</v>
+        <v>55.93091612108751</v>
       </c>
       <c r="R2">
-        <v>89.764754920104</v>
+        <v>223.72366448435</v>
       </c>
       <c r="S2">
-        <v>0.02891003312649871</v>
+        <v>0.07107751466989777</v>
       </c>
       <c r="T2">
-        <v>0.01588803216746442</v>
+        <v>0.04125099952745158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H3">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I3">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J3">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>33.085483360738</v>
+        <v>91.10398819057833</v>
       </c>
       <c r="R3">
-        <v>198.512900164428</v>
+        <v>546.62392914347</v>
       </c>
       <c r="S3">
-        <v>0.04262262714654552</v>
+        <v>0.1157757731534921</v>
       </c>
       <c r="T3">
-        <v>0.0351360547497324</v>
+        <v>0.1007885486533694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H4">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I4">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J4">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>15.645353706319</v>
+        <v>49.90564177638667</v>
       </c>
       <c r="R4">
-        <v>93.872122237914</v>
+        <v>299.43385065832</v>
       </c>
       <c r="S4">
-        <v>0.0201552466478877</v>
+        <v>0.06342054147284752</v>
       </c>
       <c r="T4">
-        <v>0.0166150211079126</v>
+        <v>0.05521072462530405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H5">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I5">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J5">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>5.2597128124005</v>
+        <v>21.37125361009625</v>
       </c>
       <c r="R5">
-        <v>21.038851249602</v>
+        <v>85.48501444038502</v>
       </c>
       <c r="S5">
-        <v>0.006775865283772426</v>
+        <v>0.02715878260776442</v>
       </c>
       <c r="T5">
-        <v>0.003723799454671183</v>
+        <v>0.01576204420936968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H6">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I6">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J6">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>12.127388597147</v>
+        <v>33.96612179681834</v>
       </c>
       <c r="R6">
-        <v>72.76433158288201</v>
+        <v>203.79673078091</v>
       </c>
       <c r="S6">
-        <v>0.01562320117259833</v>
+        <v>0.04316445514795812</v>
       </c>
       <c r="T6">
-        <v>0.01287901963150079</v>
+        <v>0.03757679753957174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H7">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I7">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J7">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>11.513914411769</v>
+        <v>37.61119503784251</v>
       </c>
       <c r="R7">
-        <v>69.08348647061399</v>
+        <v>225.667170227055</v>
       </c>
       <c r="S7">
-        <v>0.0148328883582954</v>
+        <v>0.04779664722936166</v>
       </c>
       <c r="T7">
-        <v>0.01222752355601749</v>
+        <v>0.04160935032891332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.739138</v>
       </c>
       <c r="I8">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J8">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>74.97970632986534</v>
+        <v>67.86563304593666</v>
       </c>
       <c r="R8">
-        <v>449.878237979192</v>
+        <v>407.19379827562</v>
       </c>
       <c r="S8">
-        <v>0.09659318050791335</v>
+        <v>0.08624426100873012</v>
       </c>
       <c r="T8">
-        <v>0.07962679698526977</v>
+        <v>0.07507990367922751</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.739138</v>
       </c>
       <c r="I9">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J9">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>110.5440471988271</v>
@@ -1013,10 +1013,10 @@
         <v>994.8964247894439</v>
       </c>
       <c r="S9">
-        <v>0.1424092148104146</v>
+        <v>0.1404803761739587</v>
       </c>
       <c r="T9">
-        <v>0.1760930157322789</v>
+        <v>0.1834426950025373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4.739138</v>
       </c>
       <c r="I10">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J10">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>52.27370262953578</v>
+        <v>60.55466648151822</v>
       </c>
       <c r="R10">
-        <v>470.463323665822</v>
+        <v>544.991998333664</v>
       </c>
       <c r="S10">
-        <v>0.06734199746926113</v>
+        <v>0.07695341849671798</v>
       </c>
       <c r="T10">
-        <v>0.08327028160069916</v>
+        <v>0.1004876471943338</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4.739138</v>
       </c>
       <c r="I11">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J11">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>17.57356648070767</v>
+        <v>25.93151973578367</v>
       </c>
       <c r="R11">
-        <v>105.441398884246</v>
+        <v>155.589118414702</v>
       </c>
       <c r="S11">
-        <v>0.02263928151133184</v>
+        <v>0.03295401009421315</v>
       </c>
       <c r="T11">
-        <v>0.01866274061291011</v>
+        <v>0.02868809906629456</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>4.739138</v>
       </c>
       <c r="I12">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J12">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>40.5196019917429</v>
+        <v>41.21392098899245</v>
       </c>
       <c r="R12">
-        <v>364.676417925686</v>
+        <v>370.925288900932</v>
       </c>
       <c r="S12">
-        <v>0.05219968736711716</v>
+        <v>0.05237502399133168</v>
       </c>
       <c r="T12">
-        <v>0.06454638754237113</v>
+        <v>0.06839258132320879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>4.739138</v>
       </c>
       <c r="I13">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J13">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>38.46988373421355</v>
+        <v>45.63679156142067</v>
       </c>
       <c r="R13">
-        <v>346.2289536079219</v>
+        <v>410.731124052786</v>
       </c>
       <c r="S13">
-        <v>0.04955912213512137</v>
+        <v>0.05799564796456035</v>
       </c>
       <c r="T13">
-        <v>0.06128125406376186</v>
+        <v>0.07573212893353236</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H14">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I14">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J14">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>7.463135117034668</v>
+        <v>2.888064723121667</v>
       </c>
       <c r="R14">
-        <v>44.77881070220801</v>
+        <v>17.32838833873</v>
       </c>
       <c r="S14">
-        <v>0.009614440930766065</v>
+        <v>0.003670178802022154</v>
       </c>
       <c r="T14">
-        <v>0.007925685147703143</v>
+        <v>0.003195072549969123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H15">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I15">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J15">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>11.00304603753955</v>
+        <v>4.704271495558444</v>
       </c>
       <c r="R15">
-        <v>99.027414337856</v>
+        <v>42.338443460026</v>
       </c>
       <c r="S15">
-        <v>0.01417475826545889</v>
+        <v>0.005978230814472056</v>
       </c>
       <c r="T15">
-        <v>0.01752748888871874</v>
+        <v>0.007806519329048178</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H16">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I16">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J16">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>5.203083939480889</v>
+        <v>2.576941940072889</v>
       </c>
       <c r="R16">
-        <v>46.827755455328</v>
+        <v>23.192477460656</v>
       </c>
       <c r="S16">
-        <v>0.006702912704846348</v>
+        <v>0.003274801152058159</v>
       </c>
       <c r="T16">
-        <v>0.008288340848995959</v>
+        <v>0.004276315064725199</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H17">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I17">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J17">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>1.749191982117334</v>
+        <v>1.103532141447167</v>
       </c>
       <c r="R17">
-        <v>10.495151892704</v>
+        <v>6.621192848683001</v>
       </c>
       <c r="S17">
-        <v>0.002253409957733531</v>
+        <v>0.001402378638007719</v>
       </c>
       <c r="T17">
-        <v>0.001857603365843547</v>
+        <v>0.001220840109613412</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H18">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I18">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J18">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>4.033134822140445</v>
+        <v>1.753884344219778</v>
       </c>
       <c r="R18">
-        <v>36.29821339926401</v>
+        <v>15.784959097978</v>
       </c>
       <c r="S18">
-        <v>0.005195716800675054</v>
+        <v>0.002228852106332375</v>
       </c>
       <c r="T18">
-        <v>0.006424650550456005</v>
+        <v>0.002910489338677367</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H19">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I19">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J19">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>3.829115293969778</v>
+        <v>1.942102384807667</v>
       </c>
       <c r="R19">
-        <v>34.462037645728</v>
+        <v>17.478921463269</v>
       </c>
       <c r="S19">
-        <v>0.004932887082123875</v>
+        <v>0.002468041296655349</v>
       </c>
       <c r="T19">
-        <v>0.006099654181187643</v>
+        <v>0.003222828406121115</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H20">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I20">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J20">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>34.52169095565301</v>
+        <v>16.71207349096</v>
       </c>
       <c r="R20">
-        <v>138.086763822612</v>
+        <v>66.84829396384001</v>
       </c>
       <c r="S20">
-        <v>0.04447283257215952</v>
+        <v>0.02123785432275917</v>
       </c>
       <c r="T20">
-        <v>0.02444085039242237</v>
+        <v>0.01232573652442657</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H21">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I21">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J21">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>50.89600401468901</v>
+        <v>27.22173444583467</v>
       </c>
       <c r="R21">
-        <v>305.376024088134</v>
+        <v>163.330406675008</v>
       </c>
       <c r="S21">
-        <v>0.0655671666849961</v>
+        <v>0.03459362663084257</v>
       </c>
       <c r="T21">
-        <v>0.05405043547663086</v>
+        <v>0.03011546652473385</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H22">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I22">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J22">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>24.0675336783195</v>
+        <v>14.91173059234133</v>
       </c>
       <c r="R22">
-        <v>144.405202069917</v>
+        <v>89.47038355404801</v>
       </c>
       <c r="S22">
-        <v>0.03100518445274598</v>
+        <v>0.01894996226480719</v>
       </c>
       <c r="T22">
-        <v>0.02555919077234844</v>
+        <v>0.01649688135680936</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H23">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I23">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J23">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>8.091112392020252</v>
+        <v>6.385698388216001</v>
       </c>
       <c r="R23">
-        <v>32.36444956808101</v>
+        <v>25.542793552864</v>
       </c>
       <c r="S23">
-        <v>0.0104234374612498</v>
+        <v>0.00811500333524557</v>
       </c>
       <c r="T23">
-        <v>0.005728388789983623</v>
+        <v>0.004709675068158436</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H24">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I24">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J24">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>18.65578362565351</v>
+        <v>10.14902603137067</v>
       </c>
       <c r="R24">
-        <v>111.934701753921</v>
+        <v>60.89415618822401</v>
       </c>
       <c r="S24">
-        <v>0.02403345603064273</v>
+        <v>0.01289747418168871</v>
       </c>
       <c r="T24">
-        <v>0.01981203138920989</v>
+        <v>0.01122789050471998</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H25">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I25">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J25">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>17.7120650690445</v>
+        <v>11.238168425392</v>
       </c>
       <c r="R25">
-        <v>106.272390414267</v>
+        <v>67.42901055235201</v>
       </c>
       <c r="S25">
-        <v>0.02281770337770267</v>
+        <v>0.01428156619836626</v>
       </c>
       <c r="T25">
-        <v>0.01880982306382991</v>
+        <v>0.01243281120413694</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H26">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I26">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J26">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N26">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O26">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P26">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q26">
-        <v>22.95482985336933</v>
+        <v>6.136756260021667</v>
       </c>
       <c r="R26">
-        <v>137.728979120216</v>
+        <v>36.82053756013</v>
       </c>
       <c r="S26">
-        <v>0.02957173523460137</v>
+        <v>0.007798645424526187</v>
       </c>
       <c r="T26">
-        <v>0.02437752381323487</v>
+        <v>0.006789107361504377</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H27">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I27">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J27">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P27">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q27">
-        <v>33.84275451264578</v>
+        <v>9.995955879411778</v>
       </c>
       <c r="R27">
-        <v>304.584790613812</v>
+        <v>89.963602914706</v>
       </c>
       <c r="S27">
-        <v>0.04359818750347543</v>
+        <v>0.01270295124650511</v>
       </c>
       <c r="T27">
-        <v>0.0539103900556503</v>
+        <v>0.01658782297293355</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H28">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I28">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J28">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N28">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O28">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P28">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q28">
-        <v>16.00344957857844</v>
+        <v>5.475661419859556</v>
       </c>
       <c r="R28">
-        <v>144.031046207206</v>
+        <v>49.280952778736</v>
       </c>
       <c r="S28">
-        <v>0.02061656639587553</v>
+        <v>0.006958520115330687</v>
       </c>
       <c r="T28">
-        <v>0.0254929665578704</v>
+        <v>0.009086604961855555</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H29">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I29">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J29">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N29">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O29">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P29">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q29">
-        <v>5.380098805759667</v>
+        <v>2.344860114437167</v>
       </c>
       <c r="R29">
-        <v>32.28059283455801</v>
+        <v>14.069160686623</v>
       </c>
       <c r="S29">
-        <v>0.006930953461045464</v>
+        <v>0.002979869466502943</v>
       </c>
       <c r="T29">
-        <v>0.005713546455919905</v>
+        <v>0.002594124060023716</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H30">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I30">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J30">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N30">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O30">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P30">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q30">
-        <v>12.40496415596422</v>
+        <v>3.726772687113112</v>
       </c>
       <c r="R30">
-        <v>111.644677403678</v>
+        <v>33.54095418401801</v>
       </c>
       <c r="S30">
-        <v>0.01598079001056284</v>
+        <v>0.004736016477294669</v>
       </c>
       <c r="T30">
-        <v>0.01976069814366034</v>
+        <v>0.006184405607623987</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H31">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I31">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J31">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N31">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O31">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P31">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q31">
-        <v>11.77744857672289</v>
+        <v>4.126711175187667</v>
       </c>
       <c r="R31">
-        <v>105.997037190506</v>
+        <v>37.140400576689</v>
       </c>
       <c r="S31">
-        <v>0.01517238826315505</v>
+        <v>0.005244261929445566</v>
       </c>
       <c r="T31">
-        <v>0.0187610865538219</v>
+        <v>0.006848084891553942</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H32">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I32">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J32">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N32">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O32">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P32">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q32">
-        <v>11.71028982871733</v>
+        <v>2.290308917191667</v>
       </c>
       <c r="R32">
-        <v>70.261738972304</v>
+        <v>13.74185350315</v>
       </c>
       <c r="S32">
-        <v>0.01508587049206314</v>
+        <v>0.002910545311073713</v>
       </c>
       <c r="T32">
-        <v>0.01243606992441016</v>
+        <v>0.002533773946852203</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H33">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I33">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J33">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P33">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q33">
-        <v>17.26470927803645</v>
+        <v>3.730607167114444</v>
       </c>
       <c r="R33">
-        <v>155.382383502328</v>
+        <v>33.57546450403</v>
       </c>
       <c r="S33">
-        <v>0.02224139385627033</v>
+        <v>0.004740889369202181</v>
       </c>
       <c r="T33">
-        <v>0.0275021115975818</v>
+        <v>0.006190768748500426</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H34">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I34">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J34">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N34">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O34">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P34">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q34">
-        <v>8.164078497707111</v>
+        <v>2.043580622408889</v>
       </c>
       <c r="R34">
-        <v>73.476706479364</v>
+        <v>18.39222560168</v>
       </c>
       <c r="S34">
-        <v>0.01051743660531904</v>
+        <v>0.002597000759900343</v>
       </c>
       <c r="T34">
-        <v>0.01300510737362936</v>
+        <v>0.003391226812560801</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H35">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I35">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J35">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N35">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O35">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P35">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q35">
-        <v>2.744630072408667</v>
+        <v>0.8751291076441667</v>
       </c>
       <c r="R35">
-        <v>16.467780434452</v>
+        <v>5.250774645865</v>
       </c>
       <c r="S35">
-        <v>0.003535790695755501</v>
+        <v>0.001112121994425564</v>
       </c>
       <c r="T35">
-        <v>0.002914736697072146</v>
+        <v>0.0009681573155641008</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H36">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I36">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J36">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N36">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O36">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P36">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q36">
-        <v>6.328329441303556</v>
+        <v>1.390874976287778</v>
       </c>
       <c r="R36">
-        <v>56.95496497173201</v>
+        <v>12.51787478659</v>
       </c>
       <c r="S36">
-        <v>0.008152518834204866</v>
+        <v>0.001767536514457615</v>
       </c>
       <c r="T36">
-        <v>0.01008081976465156</v>
+        <v>0.002308092208736567</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H37">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I37">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J37">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N37">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O37">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P37">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q37">
-        <v>6.008205556618222</v>
+        <v>1.540136678521667</v>
       </c>
       <c r="R37">
-        <v>54.073850009564</v>
+        <v>13.861230106695</v>
       </c>
       <c r="S37">
-        <v>0.007740116789813442</v>
+        <v>0.001957219637244571</v>
       </c>
       <c r="T37">
-        <v>0.009570872990577132</v>
+        <v>0.002555785048037111</v>
       </c>
     </row>
   </sheetData>
